--- a/Project/Data/MonsterPoolData.xlsx
+++ b/Project/Data/MonsterPoolData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Just Run\Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C45753F-EDBB-4082-B772-207E31356C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2102A9F3-888F-4371-A50D-5FA0A962CF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{66A36EBB-36D6-4BA0-A7B9-EA7FCC2BDE8B}"/>
+    <workbookView xWindow="6015" yWindow="3390" windowWidth="21600" windowHeight="11295" xr2:uid="{66A36EBB-36D6-4BA0-A7B9-EA7FCC2BDE8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Easy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,10 +515,10 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -529,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
